--- a/Data/VanderSteur.xlsx
+++ b/Data/VanderSteur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alielassche/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alielassche/Documents/GitHub/netwerk-huwelijksgedichten/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846B6D7-F2EC-2D47-BE6A-C811E0A2160A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFE2B0-2E90-5C4A-B9F9-58AA35D5BFAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{497C1C06-3A1C-9742-BA45-177D18C5E3DE}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16600" xr2:uid="{497C1C06-3A1C-9742-BA45-177D18C5E3DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="369">
   <si>
     <t>Peter Nooms</t>
   </si>
@@ -1501,7 +1502,7 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,98 +1570,80 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str">
         <f>B2&amp;" &amp; "&amp;C2</f>
-        <v>Francois van Bochoven &amp; Hendrina Christina de Lantman</v>
+        <v>George van Haemstede &amp; Catharina van Hengel</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1740</v>
+        <v>1691</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>10</v>
       </c>
       <c r="D3" t="str">
         <f>B3&amp;" &amp; "&amp;C3</f>
-        <v>Jan van der Vliet &amp; Jacomina Hooft</v>
+        <v>Joannes Terwen &amp; Levina de Graad</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L3" t="s">
-        <v>308</v>
-      </c>
-      <c r="M3" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" t="s">
-        <v>310</v>
-      </c>
-      <c r="O3" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="D4" t="str">
         <f>B4&amp;" &amp; "&amp;C4</f>
-        <v>Albert Koenen &amp; Maria Fransoise Fagel</v>
+        <v>Jean Linnich &amp; Anna van Leuvenich</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1695,788 +1678,641 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1744</v>
+        <v>1695</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;" &amp; "&amp;C6</f>
-        <v>Joannes Petrus Driessen &amp; Anna Christina Alberthoma</v>
+        <v>Cornelis van Melle &amp; Margarita Cocquelle</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" t="s">
-        <v>343</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1732</v>
+        <v>1695</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;" &amp; "&amp;C7</f>
-        <v>Cornelis Johannes Rycken &amp; Catharina Lach</v>
-      </c>
-      <c r="E7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>Mathias de Schepper &amp; Elizabeth Leidack</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;" &amp; "&amp;C8</f>
-        <v>Jacobus Georgius van der Poel &amp; Susanna Sighers</v>
+        <v>Francois van Bochoven &amp; Hendrina Christina de Lantman</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1693</v>
+        <v>1702</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D9" t="str">
         <f>B9&amp;" &amp; "&amp;C9</f>
-        <v>Jean Linnich &amp; Anna van Leuvenich</v>
+        <v>Maurits van Reverhorst &amp; Emmerentia Schrevelius</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="D10" t="str">
         <f>B10&amp;" &amp; "&amp;C10</f>
-        <v>Jan de Heeger &amp; Suzanna Swigtenheuvel</v>
-      </c>
-      <c r="E10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
+        <v>Willem Gerrit Dedel &amp; Suzanna Sofia van de Bocquery</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1687</v>
+        <v>1705</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D11" t="str">
         <f>B11&amp;" &amp; "&amp;C11</f>
-        <v>George van Haemstede &amp; Catharina van Hengel</v>
+        <v>Jacob Verbeek &amp; Beatrix van Hees</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D12" t="str">
         <f>B12&amp;" &amp; "&amp;C12</f>
-        <v>Maurits van Reverhorst &amp; Emmerentia Schrevelius</v>
+        <v>Jacobus Georgius van der Poel &amp; Susanna Sighers</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D13" t="str">
         <f>B13&amp;" &amp; "&amp;C13</f>
-        <v>Tymen van Rooyen &amp; Elisabeth Keppel</v>
+        <v>Henricus Hollenhagen &amp; Sophia de Lange</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D14" t="str">
         <f>B14&amp;" &amp; "&amp;C14</f>
-        <v>Petrus Vuyst &amp; Barbara Wilhelmina Gerlings</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
+        <v>Adriaen van den Santheuvel &amp; Alida Everwijn van Brandwijk</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1691</v>
+        <v>1709</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D15" t="str">
         <f>B15&amp;" &amp; "&amp;C15</f>
-        <v>Joannes Terwen &amp; Levina de Graad</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
+        <v>Paulus Kervel &amp; Kornelia Voegen</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D16" t="str">
         <f>B16&amp;" &amp; "&amp;C16</f>
-        <v>Jacob Verbeek &amp; Beatrix van Hees</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
+        <v>Abraham de Neufville &amp; Anna de Neufville</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D17" t="str">
         <f>B17&amp;" &amp; "&amp;C17</f>
-        <v>Pieter Messchert Janszoon &amp; Anna van Dulcken</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
+        <v>Abraham de Neufville &amp; Anna de Neufville</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D18" t="str">
         <f>B18&amp;" &amp; "&amp;C18</f>
-        <v>Claudius Lormier &amp; Johanna Catharina Steenlack</v>
+        <v>Tymen van Rooyen &amp; Elisabeth Keppel</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D19" t="str">
         <f>B19&amp;" &amp; "&amp;C19</f>
-        <v>Abraham Verhamme Albertusz. &amp; Wyna van Lennep</v>
+        <v>Pieter Messchert Janszoon &amp; Anna van Dulcken</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" t="s">
-        <v>137</v>
-      </c>
-      <c r="O19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="D20" t="str">
         <f>B20&amp;" &amp; "&amp;C20</f>
-        <v>Hendrik Hoofd &amp; Margareta Willink</v>
+        <v>Nicolaas van Veen &amp; Anna Asschenberg</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D21" t="str">
         <f>B21&amp;" &amp; "&amp;C21</f>
-        <v>Henricus Hollenhagen &amp; Sophia de Lange</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>Marinus Oudenaarde &amp; Magdalena van der Laan</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1728</v>
+        <v>1711</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="D22" t="str">
         <f>B22&amp;" &amp; "&amp;C22</f>
-        <v>Hendrik Coesvelt &amp; Aletta van Rincom</v>
-      </c>
-      <c r="E22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>Jan Oudaen &amp; Maria Bredenburg</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="D23" t="str">
         <f>B23&amp;" &amp; "&amp;C23</f>
-        <v>Isaak Ostens &amp; Maria Scheltes</v>
+        <v>Claudius Lormier &amp; Johanna Catharina Steenlack</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>250</v>
-      </c>
-      <c r="H23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1743</v>
+        <v>1712</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="D24" t="str">
         <f>B24&amp;" &amp; "&amp;C24</f>
-        <v>Harmanus Veeckens &amp; Debora Elizabeth Kramp</v>
+        <v>Willem van Laar &amp; Livina van Coppenoll</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" t="s">
-        <v>337</v>
-      </c>
-      <c r="I24" t="s">
-        <v>338</v>
-      </c>
-      <c r="J24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="D25" t="str">
         <f>B25&amp;" &amp; "&amp;C25</f>
-        <v>Marten Schagen &amp; Diewertje Blauwduif</v>
+        <v>Cornelis van Tongerlo &amp; Johanna Vermeersch</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" t="s">
-        <v>174</v>
-      </c>
-      <c r="M25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1741</v>
+        <v>1713</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="D26" t="str">
         <f>B26&amp;" &amp; "&amp;C26</f>
-        <v>Gysbert Antwerpen Verbrugge &amp; Maria Hooft</v>
-      </c>
-      <c r="E26" t="s">
-        <v>315</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
+        <v>Adolph van Asperen &amp; Zuzanna Jonas</v>
       </c>
       <c r="G26" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="N26" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="O26" t="s">
-        <v>322</v>
-      </c>
-      <c r="P26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D27" t="str">
         <f>B27&amp;" &amp; "&amp;C27</f>
-        <v>Emanuel Der Kinderen &amp; Maria Michell</v>
+        <v>Albert Koenen &amp; Maria Fransoise Fagel</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" t="s">
-        <v>195</v>
-      </c>
-      <c r="J27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" t="s">
-        <v>197</v>
-      </c>
-      <c r="L27" t="s">
-        <v>159</v>
-      </c>
-      <c r="M27" t="s">
-        <v>198</v>
-      </c>
-      <c r="N27" t="s">
-        <v>199</v>
-      </c>
-      <c r="O27" t="s">
-        <v>200</v>
-      </c>
-      <c r="P27" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>202</v>
-      </c>
-      <c r="R27" t="s">
-        <v>165</v>
-      </c>
-      <c r="S27" t="s">
-        <v>77</v>
-      </c>
-      <c r="T27" t="s">
-        <v>203</v>
-      </c>
-      <c r="U27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D28" t="str">
         <f>B28&amp;" &amp; "&amp;C28</f>
-        <v>Zacharias van Dulmen &amp; Cornelia Wibbert</v>
+        <v>Petrus Vuyst &amp; Barbara Wilhelmina Gerlings</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="D29" t="str">
         <f>B29&amp;" &amp; "&amp;C29</f>
-        <v>Jan Paeuw &amp; Alida Kruyt</v>
-      </c>
-      <c r="E29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" t="s">
-        <v>39</v>
+        <v>Hendrik Haak van Veen &amp; Eva Verver</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>183</v>
-      </c>
-      <c r="J29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K29" t="s">
-        <v>185</v>
-      </c>
-      <c r="L29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1695</v>
+        <v>1716</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D30" t="str">
         <f>B30&amp;" &amp; "&amp;C30</f>
-        <v>Cornelis van Melle &amp; Margarita Cocquelle</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
+        <v>Janum Georgium Ab Auerswald &amp; Clarae Mariae Ab Oudensteyn</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D31" t="str">
         <f>B31&amp;" &amp; "&amp;C31</f>
-        <v>Jan Raket &amp; Johanna Pothoff</v>
+        <v>Abraham Verhamme Albertusz. &amp; Wyna van Lennep</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1718</v>
       </c>
@@ -2500,22 +2336,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D33" t="str">
         <f>B33&amp;" &amp; "&amp;C33</f>
-        <v>Cornelis van Tongerlo &amp; Johanna Vermeersch</v>
+        <v>Hendrik Hoofd &amp; Margareta Willink</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -2524,16 +2360,13 @@
         <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="I33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1719</v>
       </c>
@@ -2560,982 +2393,1147 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="D35" t="str">
         <f>B35&amp;" &amp; "&amp;C35</f>
-        <v>Simon Tetterode &amp; Johanna Margareta de Burlett</v>
-      </c>
-      <c r="E35" t="s">
-        <v>326</v>
-      </c>
-      <c r="F35" t="s">
-        <v>327</v>
+        <v>Frederik Ottens &amp; Debora Hogeboom</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
-      </c>
-      <c r="H35" t="s">
-        <v>329</v>
-      </c>
-      <c r="I35" t="s">
-        <v>330</v>
-      </c>
-      <c r="J35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D36" t="str">
         <f>B36&amp;" &amp; "&amp;C36</f>
-        <v>Nicolaas van Veen &amp; Anna Asschenberg</v>
-      </c>
-      <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
+        <v>Jacob van Veen &amp; Geertruij Buys</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="D37" t="str">
         <f>B37&amp;" &amp; "&amp;C37</f>
-        <v>Nanningh van Foreest &amp; Jacobae De Vries</v>
-      </c>
-      <c r="E37" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" t="s">
-        <v>223</v>
+        <v>Adam der Kinderen &amp; Maria Huygens</v>
       </c>
       <c r="G37" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="H37" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
-      </c>
-      <c r="M37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="D38" t="str">
         <f>B38&amp;" &amp; "&amp;C38</f>
-        <v>Kornelis Hoorens &amp; Maria van Hoppenbroek</v>
+        <v>Jan de Heeger &amp; Suzanna Swigtenheuvel</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="D39" t="str">
         <f>B39&amp;" &amp; "&amp;C39</f>
-        <v>Hobbe van Burmania &amp; Helena Amerentiana Lucia van Unia</v>
+        <v>Marten Schagen &amp; Diewertje Blauwduif</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="H39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" t="s">
+        <v>174</v>
+      </c>
+      <c r="M39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="D40" t="str">
         <f>B40&amp;" &amp; "&amp;C40</f>
-        <v>Feyo van Hiemstra &amp; Tita Helena van Burmania</v>
+        <v>Jan Paeuw &amp; Alida Kruyt</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>188</v>
       </c>
       <c r="D41" t="str">
         <f>B41&amp;" &amp; "&amp;C41</f>
-        <v>Willem Carel Henrik Friso &amp; Anna, kroon-prinsesse van Groot Brittanjen</v>
-      </c>
-      <c r="E41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" t="s">
-        <v>260</v>
+        <v>Anthony Repelaer &amp; Hester Coymans</v>
       </c>
       <c r="G41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1712</v>
+        <v>1725</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="D42" t="str">
         <f>B42&amp;" &amp; "&amp;C42</f>
-        <v>Willem van Laar &amp; Livina van Coppenoll</v>
+        <v>Emanuel Der Kinderen &amp; Maria Michell</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="H42" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" t="s">
+        <v>196</v>
+      </c>
+      <c r="K42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" t="s">
+        <v>159</v>
+      </c>
+      <c r="M42" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" t="s">
+        <v>199</v>
+      </c>
+      <c r="O42" t="s">
+        <v>200</v>
+      </c>
+      <c r="P42" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>202</v>
+      </c>
+      <c r="R42" t="s">
+        <v>165</v>
+      </c>
+      <c r="S42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s">
+        <v>203</v>
+      </c>
+      <c r="U42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1748</v>
+        <v>1726</v>
       </c>
       <c r="B43" t="s">
-        <v>353</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="D43" t="str">
         <f>B43&amp;" &amp; "&amp;C43</f>
-        <v>Jan de Heger &amp; Johanna Stevens</v>
-      </c>
-      <c r="E43" t="s">
-        <v>355</v>
-      </c>
-      <c r="F43" t="s">
-        <v>7</v>
+        <v>Matthijs Beuning &amp; Christina Luyken</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1695</v>
+        <v>1727</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="D44" t="str">
         <f>B44&amp;" &amp; "&amp;C44</f>
-        <v>Mathias de Schepper &amp; Elizabeth Leidack</v>
+        <v>Zacharias van Dulmen &amp; Cornelia Wibbert</v>
+      </c>
+      <c r="E44" t="s">
+        <v>192</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="H44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1702</v>
+        <v>1727</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="D45" t="str">
         <f>B45&amp;" &amp; "&amp;C45</f>
-        <v>Willem Gerrit Dedel &amp; Suzanna Sofia van de Bocquery</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>Bastiaan Oudemans &amp; Helena Outhof</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1709</v>
+        <v>1727</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="D46" t="str">
         <f>B46&amp;" &amp; "&amp;C46</f>
-        <v>Adriaen van den Santheuvel &amp; Alida Everwijn van Brandwijk</v>
+        <v>Willem Hendrik Schlosser &amp; Maria Petronella Beeldsnijder</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="H46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1709</v>
+        <v>1728</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="D47" t="str">
         <f>B47&amp;" &amp; "&amp;C47</f>
-        <v>Paulus Kervel &amp; Kornelia Voegen</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" t="s">
-        <v>64</v>
-      </c>
-      <c r="J47" t="s">
-        <v>65</v>
-      </c>
-      <c r="K47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>Hendrik Coesvelt &amp; Aletta van Rincom</v>
+      </c>
+      <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1709</v>
+        <v>1728</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="D48" t="str">
         <f>B48&amp;" &amp; "&amp;C48</f>
-        <v>Abraham de Neufville &amp; Anna de Neufville</v>
+        <v>Nanningh van Foreest &amp; Jacobae De Vries</v>
+      </c>
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" t="s">
+        <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="H48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I48" t="s">
+        <v>226</v>
+      </c>
+      <c r="J48" t="s">
+        <v>227</v>
+      </c>
+      <c r="K48" t="s">
+        <v>228</v>
+      </c>
+      <c r="L48" t="s">
+        <v>229</v>
+      </c>
+      <c r="M48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="D49" t="str">
         <f>B49&amp;" &amp; "&amp;C49</f>
-        <v>Abraham de Neufville &amp; Anna de Neufville</v>
+        <v>Jan Raket &amp; Johanna Pothoff</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1711</v>
+        <v>1729</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="D50" t="str">
         <f>B50&amp;" &amp; "&amp;C50</f>
-        <v>Marinus Oudenaarde &amp; Magdalena van der Laan</v>
+        <v>Niclaas Geelvinck &amp; Johanna Jacoba Graafland</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1711</v>
+        <v>1730</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="D51" t="str">
         <f>B51&amp;" &amp; "&amp;C51</f>
-        <v>Jan Oudaen &amp; Maria Bredenburg</v>
+        <v>Kornelis Hoorens &amp; Maria van Hoppenbroek</v>
+      </c>
+      <c r="E51" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="H51" t="s">
+        <v>242</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1713</v>
+        <v>1730</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="D52" t="str">
         <f>B52&amp;" &amp; "&amp;C52</f>
-        <v>Adolph van Asperen &amp; Zuzanna Jonas</v>
+        <v>Cornelis Bouquet &amp; Petronella Uytwerf</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52" t="s">
-        <v>64</v>
-      </c>
-      <c r="N52" t="s">
-        <v>106</v>
-      </c>
-      <c r="O52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1716</v>
+        <v>1730</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="D53" t="str">
         <f>B53&amp;" &amp; "&amp;C53</f>
-        <v>Hendrik Haak van Veen &amp; Eva Verver</v>
+        <v>Joan Muysken &amp; Catharina Regina van Romont</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1716</v>
+        <v>1731</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D54" t="str">
         <f>B54&amp;" &amp; "&amp;C54</f>
-        <v>Janum Georgium Ab Auerswald &amp; Clarae Mariae Ab Oudensteyn</v>
+        <v>Isaak Ostens &amp; Maria Scheltes</v>
+      </c>
+      <c r="E54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="H54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="D55" t="str">
         <f>B55&amp;" &amp; "&amp;C55</f>
-        <v>Frederik Ottens &amp; Debora Hogeboom</v>
+        <v>Willem Vlaardingerwoud &amp; Sofia Vlaardingerwoud</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="D56" t="str">
         <f>B56&amp;" &amp; "&amp;C56</f>
-        <v>Jacob van Veen &amp; Geertruij Buys</v>
+        <v>Bastiaan Oudemans &amp; Geertruit Geselschap</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1721</v>
+        <v>1732</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="D57" t="str">
         <f>B57&amp;" &amp; "&amp;C57</f>
-        <v>Adam der Kinderen &amp; Maria Huygens</v>
+        <v>Cornelis Johannes Rycken &amp; Catharina Lach</v>
+      </c>
+      <c r="E57" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
-      </c>
-      <c r="J57" t="s">
-        <v>163</v>
-      </c>
-      <c r="K57" t="s">
-        <v>164</v>
-      </c>
-      <c r="L57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="D58" t="str">
         <f>B58&amp;" &amp; "&amp;C58</f>
-        <v>Anthony Repelaer &amp; Hester Coymans</v>
+        <v>Hobbe van Burmania &amp; Helena Amerentiana Lucia van Unia</v>
+      </c>
+      <c r="E58" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" t="s">
+        <v>260</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="D59" t="str">
         <f>B59&amp;" &amp; "&amp;C59</f>
-        <v>Matthijs Beuning &amp; Christina Luyken</v>
+        <v>Pieter Twent &amp; Elisabeth Adriana van der Lely</v>
       </c>
       <c r="G59" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="H59" t="s">
+        <v>271</v>
+      </c>
+      <c r="I59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="D60" t="str">
         <f>B60&amp;" &amp; "&amp;C60</f>
-        <v>Bastiaan Oudemans &amp; Helena Outhof</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>Feyo van Hiemstra &amp; Tita Helena van Burmania</v>
+      </c>
+      <c r="E60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="D61" t="str">
         <f>B61&amp;" &amp; "&amp;C61</f>
-        <v>Willem Hendrik Schlosser &amp; Maria Petronella Beeldsnijder</v>
+        <v>Willem Carel Henrik Friso &amp; Anna, kroon-prinsesse van Groot Brittanjen</v>
+      </c>
+      <c r="E61" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" t="s">
+        <v>260</v>
       </c>
       <c r="G61" t="s">
-        <v>211</v>
-      </c>
-      <c r="H61" t="s">
-        <v>212</v>
-      </c>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="D62" t="str">
         <f>B62&amp;" &amp; "&amp;C62</f>
-        <v>Niclaas Geelvinck &amp; Johanna Jacoba Graafland</v>
+        <v>Jacobus Hoorens &amp; Margareta Hooft</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="J62" t="s">
+        <v>277</v>
+      </c>
+      <c r="K62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="D63" t="str">
         <f>B63&amp;" &amp; "&amp;C63</f>
-        <v>Cornelis Bouquet &amp; Petronella Uytwerf</v>
+        <v>Paulus Bogaert &amp; Maria Wilhelmina Boey</v>
       </c>
       <c r="G63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="D64" t="str">
         <f>B64&amp;" &amp; "&amp;C64</f>
-        <v>Joan Muysken &amp; Catharina Regina van Romont</v>
+        <v>Lambertus Bosboom &amp; Maria Boonen</v>
       </c>
       <c r="G64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D65" t="str">
         <f>B65&amp;" &amp; "&amp;C65</f>
-        <v>Willem Vlaardingerwoud &amp; Sofia Vlaardingerwoud</v>
+        <v>Abraham De Marre &amp; Maria Smits</v>
       </c>
       <c r="G65" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="H65" t="s">
+        <v>294</v>
+      </c>
+      <c r="I65" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="D66" t="str">
         <f>B66&amp;" &amp; "&amp;C66</f>
-        <v>Bastiaan Oudemans &amp; Geertruit Geselschap</v>
+        <v>Lambert van Neck &amp; Theodora Maria Groenhout</v>
       </c>
       <c r="G66" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="H66" t="s">
+        <v>298</v>
+      </c>
+      <c r="I66" t="s">
+        <v>299</v>
+      </c>
+      <c r="J66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="D67" t="str">
         <f>B67&amp;" &amp; "&amp;C67</f>
-        <v>Pieter Twent &amp; Elisabeth Adriana van der Lely</v>
+        <v>Jan van der Vliet &amp; Jacomina Hooft</v>
+      </c>
+      <c r="E67" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="I67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="J67" t="s">
+        <v>307</v>
+      </c>
+      <c r="K67" t="s">
+        <v>294</v>
+      </c>
+      <c r="L67" t="s">
+        <v>308</v>
+      </c>
+      <c r="M67" t="s">
+        <v>309</v>
+      </c>
+      <c r="N67" t="s">
+        <v>310</v>
+      </c>
+      <c r="O67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="D68" t="str">
         <f>B68&amp;" &amp; "&amp;C68</f>
-        <v>Jacobus Hoorens &amp; Margareta Hooft</v>
+        <v>Jan van der Vliet &amp; Jacomina Hooft</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" t="s">
-        <v>275</v>
-      </c>
-      <c r="I68" t="s">
-        <v>276</v>
-      </c>
-      <c r="J68" t="s">
-        <v>277</v>
-      </c>
-      <c r="K68" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D69" t="str">
         <f>B69&amp;" &amp; "&amp;C69</f>
-        <v>Paulus Bogaert &amp; Maria Wilhelmina Boey</v>
+        <v>Gysbert Antwerpen Verbrugge &amp; Maria Hooft</v>
+      </c>
+      <c r="E69" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="H69" t="s">
+        <v>276</v>
+      </c>
+      <c r="I69" t="s">
+        <v>306</v>
+      </c>
+      <c r="J69" t="s">
+        <v>317</v>
+      </c>
+      <c r="K69" t="s">
+        <v>318</v>
+      </c>
+      <c r="L69" t="s">
+        <v>319</v>
+      </c>
+      <c r="M69" t="s">
+        <v>320</v>
+      </c>
+      <c r="N69" t="s">
+        <v>321</v>
+      </c>
+      <c r="O69" t="s">
+        <v>322</v>
+      </c>
+      <c r="P69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="D70" t="str">
         <f>B70&amp;" &amp; "&amp;C70</f>
-        <v>Lambertus Bosboom &amp; Maria Boonen</v>
+        <v>Simon Tetterode &amp; Johanna Margareta de Burlett</v>
+      </c>
+      <c r="E70" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" t="s">
+        <v>327</v>
       </c>
       <c r="G70" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="H70" t="s">
+        <v>329</v>
+      </c>
+      <c r="I70" t="s">
+        <v>330</v>
+      </c>
+      <c r="J70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="D71" t="str">
         <f>B71&amp;" &amp; "&amp;C71</f>
-        <v>Abraham De Marre &amp; Maria Smits</v>
+        <v>Harmanus Veeckens &amp; Debora Elizabeth Kramp</v>
+      </c>
+      <c r="E71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="H71" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="I71" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="J71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="D72" t="str">
         <f>B72&amp;" &amp; "&amp;C72</f>
-        <v>Lambert van Neck &amp; Theodora Maria Groenhout</v>
-      </c>
-      <c r="G72" t="s">
-        <v>107</v>
-      </c>
-      <c r="H72" t="s">
-        <v>298</v>
-      </c>
-      <c r="I72" t="s">
-        <v>299</v>
-      </c>
-      <c r="J72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Johannes Broekhals &amp; Maria Jakoba Versluis</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="D73" t="str">
         <f>B73&amp;" &amp; "&amp;C73</f>
-        <v>Jan van der Vliet &amp; Jacomina Hooft</v>
+        <v>Joannes Petrus Driessen &amp; Anna Christina Alberthoma</v>
+      </c>
+      <c r="E73" t="s">
+        <v>341</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="H73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D74" t="str">
         <f>B74&amp;" &amp; "&amp;C74</f>
-        <v>Johannes Broekhals &amp; Maria Jakoba Versluis</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Michael Johan van Kampen &amp; Agatha Elikink</v>
+      </c>
+      <c r="G74" t="s">
+        <v>346</v>
+      </c>
+      <c r="H74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B75" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C75" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D75" t="str">
         <f>B75&amp;" &amp; "&amp;C75</f>
-        <v>Michael Johan van Kampen &amp; Agatha Elikink</v>
-      </c>
-      <c r="G75" t="s">
-        <v>346</v>
-      </c>
-      <c r="H75" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Jan van Cleeff &amp; Adriana Charlotta van Bronkhorst</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D76" t="str">
         <f>B76&amp;" &amp; "&amp;C76</f>
-        <v>Jan van Cleeff &amp; Adriana Charlotta van Bronkhorst</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Arnoldo Cloetingh &amp; Gertrudis van Maerden</v>
+      </c>
+      <c r="G76" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B77" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D77" t="str">
         <f>B77&amp;" &amp; "&amp;C77</f>
-        <v>Arnoldo Cloetingh &amp; Gertrudis van Maerden</v>
+        <v>Jan de Heger &amp; Johanna Stevens</v>
+      </c>
+      <c r="E77" t="s">
+        <v>355</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1750</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1750</v>
       </c>
@@ -3583,7 +3581,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1750</v>
       </c>
@@ -3602,8 +3600,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:U80">
-    <sortCondition ref="E1:E80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:U80">
+    <sortCondition ref="A1:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
